--- a/src/main/resources/excel/service_sales_report.xlsx
+++ b/src/main/resources/excel/service_sales_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SERVICE SALES REPORT</t>
   </si>
@@ -37,6 +37,9 @@
     <t>SERVICE TYPE</t>
   </si>
   <si>
+    <t>REGISTRATION TYPE</t>
+  </si>
+  <si>
     <t>TRANSACTION DATE</t>
   </si>
   <si>
@@ -48,12 +51,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,12 +87,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -98,52 +130,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +155,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -198,7 +194,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,21 +222,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -249,13 +245,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,43 +389,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,115 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,27 +491,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,65 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,160 +612,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -778,27 +774,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1124,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1135,16 +1131,16 @@
     <col min="1" max="1" width="8.72727272727273" style="1"/>
     <col min="2" max="3" width="23.0909090909091" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.0909090909091" style="1" customWidth="1"/>
-    <col min="5" max="7" width="23.0909090909091" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.3636363636364" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.8181818181818" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5454545454545" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.9090909090909" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.1818181818182" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.3636363636364" style="1" customWidth="1"/>
+    <col min="5" max="8" width="23.0909090909091" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.3636363636364" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.8181818181818" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5454545454545" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.9090909090909" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1818181818182" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.3636363636364" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="65" customHeight="1" spans="1:13">
+    <row r="1" ht="65" customHeight="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1154,54 +1150,58 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="13"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
     </row>
-    <row r="2" ht="17.25" spans="1:13">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="17.25" spans="1:14">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
-    <row r="12" spans="10:10">
-      <c r="J12" s="2"/>
+    <row r="12" spans="11:11">
+      <c r="K12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
